--- a/sprint-retrospective/sprint4/R1_S4.xlsx
+++ b/sprint-retrospective/sprint4/R1_S4.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="R1_S3(6)" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="R1_S4" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="96">
   <si>
     <t xml:space="preserve">Group name</t>
   </si>
@@ -43,247 +43,256 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">PAR-128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github issue: Street Name in report creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github issue: Better manage of Map borders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github issue: Change the modification layout (no an entire page)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github issue: Remove button from navbar if not logged in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github issue: Reports filtering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-134</t>
+    <t xml:space="preserve">PAR-185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSUE: Change color of the Assign to External Maintainer button #59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-187</t>
   </si>
   <si>
     <t xml:space="preserve">Scrum Meeting 1</t>
   </si>
   <si>
-    <t xml:space="preserve">PAR-135</t>
+    <t xml:space="preserve">PAR-188</t>
   </si>
   <si>
     <t xml:space="preserve">Scrum Meeting 2</t>
   </si>
   <si>
-    <t xml:space="preserve">PAR-136</t>
+    <t xml:space="preserve">PAR-189</t>
   </si>
   <si>
     <t xml:space="preserve">Scrum Meeting 3</t>
   </si>
   <si>
-    <t xml:space="preserve">PAR-137</t>
+    <t xml:space="preserve">PAR-190</t>
   </si>
   <si>
     <t xml:space="preserve">Scrum Meeting 4</t>
   </si>
   <si>
-    <t xml:space="preserve">PAR-138</t>
+    <t xml:space="preserve">PAR-192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Debt: Code Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Debt: Refactoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Debt: Bug Fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update OpenAPI Swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End to End testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Controller config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End to End Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication Channel Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot Functionalities Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMTP: Email templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-232</t>
   </si>
   <si>
     <t xml:space="preserve">Code Merge</t>
   </si>
   <si>
-    <t xml:space="preserve">PAR-139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update OpenAPI Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Debt: Code Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Debt: Bug fixing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Debt: Refactoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI-CD pipeline setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controller Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2E testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket API Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket API Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMTP config</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENUM modification + update documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR-181</t>
+    <t xml:space="preserve">PAR-233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version Release Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality Roles Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAR-240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Updates for Municipality Roles</t>
   </si>
   <si>
     <t xml:space="preserve">mean</t>
@@ -305,8 +314,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -372,8 +382,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,17 +516,16 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D64" activeCellId="0" sqref="D64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="17.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">ABS(E2/D2 -1)</f>
@@ -567,14 +580,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>90</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>150</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">ABS(E3/D3 -1)</f>
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,10 +601,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">ABS(E4/D4 -1)</f>
@@ -609,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>720</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>720</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">ABS(E5/D5 -1)</f>
@@ -630,10 +643,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">ABS(E6/D6 -1)</f>
@@ -651,10 +664,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">ABS(E7/D7 -1)</f>
@@ -672,14 +685,14 @@
         <v>20</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>90</v>
+        <v>5.41666666666667</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">ABS(E8/D8 -1)</f>
-        <v>0</v>
+        <v>0.0833333333333335</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,14 +706,14 @@
         <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>90</v>
+        <v>5.25</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">ABS(E9/D9 -1)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">ABS(E10/D10 -1)</f>
@@ -735,14 +748,14 @@
         <v>26</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">ABS(E11/D11 -1)</f>
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +769,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">ABS(E12/D12 -1)</f>
@@ -777,14 +790,14 @@
         <v>30</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">ABS(E13/D13 -1)</f>
-        <v>0.222222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,14 +811,14 @@
         <v>32</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>300</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>300</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">ABS(E14/D14 -1)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,14 +832,14 @@
         <v>34</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>300</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>360</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">ABS(E15/D15 -1)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,14 +853,14 @@
         <v>36</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>300</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>270</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">ABS(E16/D16 -1)</f>
-        <v>0.1</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,14 +874,14 @@
         <v>38</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>120</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">ABS(E17/D17 -1)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,10 +895,10 @@
         <v>40</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">ABS(E18/D18 -1)</f>
@@ -903,10 +916,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">ABS(E19/D19 -1)</f>
@@ -924,14 +937,14 @@
         <v>44</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>60</v>
+        <v>0.25</v>
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">ABS(E20/D20 -1)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,17 +955,17 @@
         <v>45</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>90</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">ABS(E21/D21 -1)</f>
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="0" t="n">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="0" t="n">
         <f aca="false">ABS(E22/D22 -1)</f>
@@ -981,16 +994,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="0" t="n">
         <f aca="false">ABS(E23/D23 -1)</f>
@@ -1002,20 +1015,20 @@
         <v>6</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>60</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="F24" s="0" t="n">
         <f aca="false">ABS(E24/D24 -1)</f>
-        <v>0</v>
+        <v>0.0833333333333334</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,16 +1036,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">ABS(E25/D25 -1)</f>
@@ -1044,20 +1057,20 @@
         <v>6</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>60</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="F26" s="0" t="n">
         <f aca="false">ABS(E26/D26 -1)</f>
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,16 +1078,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">ABS(E27/D27 -1)</f>
@@ -1086,20 +1099,20 @@
         <v>6</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>60</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">ABS(E28/D28 -1)</f>
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,16 +1120,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F29" s="0" t="n">
         <f aca="false">ABS(E29/D29 -1)</f>
@@ -1128,20 +1141,20 @@
         <v>6</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>30</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">ABS(E30/D30 -1)</f>
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,20 +1162,20 @@
         <v>6</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F31" s="0" t="n">
         <f aca="false">ABS(E31/D31 -1)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,20 +1183,20 @@
         <v>6</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
         <f aca="false">ABS(E32/D32 -1)</f>
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,16 +1204,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F33" s="0" t="n">
         <f aca="false">ABS(E33/D33 -1)</f>
@@ -1212,20 +1225,20 @@
         <v>6</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>40</v>
+        <v>0.75</v>
       </c>
       <c r="F34" s="0" t="n">
         <f aca="false">ABS(E34/D34 -1)</f>
-        <v>0.666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,20 +1246,20 @@
         <v>6</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
         <f aca="false">ABS(E35/D35 -1)</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,20 +1267,20 @@
         <v>6</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F36" s="0" t="n">
         <f aca="false">ABS(E36/D36 -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,20 +1288,20 @@
         <v>6</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>60</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="F37" s="0" t="n">
         <f aca="false">ABS(E37/D37 -1)</f>
-        <v>0</v>
+        <v>0.0833333333333334</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,20 +1309,20 @@
         <v>6</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>90</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="F38" s="0" t="n">
         <f aca="false">ABS(E38/D38 -1)</f>
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,20 +1330,20 @@
         <v>6</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F39" s="0" t="n">
         <f aca="false">ABS(E39/D39 -1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,16 +1351,16 @@
         <v>6</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F40" s="0" t="n">
         <f aca="false">ABS(E40/D40 -1)</f>
@@ -1359,16 +1372,16 @@
         <v>6</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
         <f aca="false">ABS(E41/D41 -1)</f>
@@ -1380,16 +1393,16 @@
         <v>6</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F42" s="0" t="n">
         <f aca="false">ABS(E42/D42 -1)</f>
@@ -1401,16 +1414,16 @@
         <v>6</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F43" s="0" t="n">
         <f aca="false">ABS(E43/D43 -1)</f>
@@ -1422,16 +1435,16 @@
         <v>6</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="F44" s="0" t="n">
         <f aca="false">ABS(E44/D44 -1)</f>
@@ -1443,16 +1456,16 @@
         <v>6</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F45" s="0" t="n">
         <f aca="false">ABS(E45/D45 -1)</f>
@@ -1464,20 +1477,20 @@
         <v>6</v>
       </c>
       <c r="B46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="D46" s="0" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="F46" s="0" t="n">
         <f aca="false">ABS(E46/D46 -1)</f>
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,13 +1501,13 @@
         <v>78</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F47" s="0" t="n">
         <f aca="false">ABS(E47/D47 -1)</f>
@@ -1506,20 +1519,20 @@
         <v>6</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F48" s="0" t="n">
         <f aca="false">ABS(E48/D48 -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,20 +1540,20 @@
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>60</v>
+        <v>1.5</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F49" s="0" t="n">
         <f aca="false">ABS(E49/D49 -1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,20 +1561,20 @@
         <v>6</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>90</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="F50" s="0" t="n">
         <f aca="false">ABS(E50/D50 -1)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,16 +1582,16 @@
         <v>6</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F51" s="0" t="n">
         <f aca="false">ABS(E51/D51 -1)</f>
@@ -1590,16 +1603,16 @@
         <v>6</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F52" s="0" t="n">
         <f aca="false">ABS(E52/D52 -1)</f>
@@ -1611,16 +1624,16 @@
         <v>6</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="F53" s="0" t="n">
         <f aca="false">ABS(E53/D53 -1)</f>
@@ -1632,41 +1645,20 @@
         <v>6</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="F54" s="0" t="n">
         <f aca="false">ABS(E54/D54 -1)</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <f aca="false">ABS(E55/D55 -1)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,59 +1671,59 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D58" s="1" t="n">
         <f aca="false">AVERAGE(D2:D55)/60</f>
-        <v>1.78703703703704</v>
+        <v>0.030188679245283</v>
       </c>
       <c r="E58" s="0" t="n">
         <f aca="false">AVERAGE(E2:E55)/60</f>
-        <v>1.76543209876543</v>
+        <v>0.0310010482180293</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D59" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(D2:D55)/60</f>
-        <v>2.01350038824011</v>
+        <v>0.0391762285778483</v>
       </c>
       <c r="E59" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(E2:E55)/60</f>
-        <v>1.99794609519348</v>
+        <v>0.0399085527155141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D61" s="0" t="n">
         <f aca="false">COUNT(D2:D55)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" s="0" t="n">
         <f aca="false">COUNT(E2:E55)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D63" s="0" t="n">
         <f aca="false">(SUM(E2:E55)/SUM(D2:D55)) -1</f>
-        <v>-0.0120898100172712</v>
+        <v>0.0269097222222221</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D64" s="0" t="n">
         <f aca="false">SUM(F2:F55)/D61</f>
-        <v>0.120267489711934</v>
+        <v>0.137421383647799</v>
       </c>
     </row>
   </sheetData>

--- a/sprint-retrospective/sprint4/R1_S4.xlsx
+++ b/sprint-retrospective/sprint4/R1_S4.xlsx
@@ -314,15 +314,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -382,12 +384,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,1212 +526,1212 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="17.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">ABS(E2/D2 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">ABS(E3/D3 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <f aca="false">ABS(E4/D4 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">ABS(E5/D5 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">ABS(E6/D6 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <f aca="false">ABS(E7/D7 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>5.41666666666667</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">ABS(E8/D8 -1)</f>
-        <v>0.0833333333333335</v>
+        <v>0.0833333333333339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>5.25</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <f aca="false">ABS(E9/D9 -1)</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">ABS(E10/D10 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <f aca="false">ABS(E11/D11 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">ABS(E12/D12 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">ABS(E13/D13 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <f aca="false">ABS(E14/D14 -1)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <f aca="false">ABS(E15/D15 -1)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <f aca="false">ABS(E16/D16 -1)</f>
-        <v>0.666666666666667</v>
+        <v>0.666666666666666</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="0" t="n">
+      <c r="D17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <f aca="false">ABS(E17/D17 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <f aca="false">ABS(E18/D18 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <f aca="false">ABS(E19/D19 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <f aca="false">ABS(E20/D20 -1)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <f aca="false">ABS(E21/D21 -1)</f>
-        <v>0.166666666666667</v>
+        <v>0.166666666666666</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="0" t="n">
+      <c r="D22" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <f aca="false">ABS(E22/D22 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="0" t="n">
+      <c r="D23" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <f aca="false">ABS(E23/D23 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>0.916666666666667</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <f aca="false">ABS(E24/D24 -1)</f>
-        <v>0.0833333333333334</v>
+        <v>0.083333333333333</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <f aca="false">ABS(E25/D25 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>1.33333333333333</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <f aca="false">ABS(E26/D26 -1)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="n">
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <f aca="false">ABS(E27/D27 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <f aca="false">ABS(E28/D28 -1)</f>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
+      <c r="D29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <f aca="false">ABS(E29/D29 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <f aca="false">ABS(E30/D30 -1)</f>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <f aca="false">ABS(E31/D31 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="n">
         <f aca="false">ABS(E32/D32 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="n">
         <f aca="false">ABS(E33/D33 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>0.75</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <f aca="false">ABS(E34/D34 -1)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
         <f aca="false">ABS(E35/D35 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="n">
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
         <f aca="false">ABS(E36/D36 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>0.916666666666667</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <f aca="false">ABS(E37/D37 -1)</f>
-        <v>0.0833333333333334</v>
+        <v>0.083333333333333</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>1.33333333333333</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <f aca="false">ABS(E38/D38 -1)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <f aca="false">ABS(E39/D39 -1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <f aca="false">ABS(E40/D40 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <f aca="false">ABS(E41/D41 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="n">
         <f aca="false">ABS(E42/D42 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="n">
         <f aca="false">ABS(E43/D43 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <f aca="false">ABS(E44/D44 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
+      <c r="D45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="n">
         <f aca="false">ABS(E45/D45 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <f aca="false">ABS(E46/D46 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="n">
         <f aca="false">ABS(E47/D47 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
+      <c r="D48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="n">
         <f aca="false">ABS(E48/D48 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <f aca="false">ABS(E49/D49 -1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F50" s="0" t="n">
+      <c r="E50" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="1" t="n">
         <f aca="false">ABS(E50/D50 -1)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="0" t="n">
+      <c r="D51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="n">
         <f aca="false">ABS(E51/D51 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="n">
+      <c r="D52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="n">
         <f aca="false">ABS(E52/D52 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F53" s="0" t="n">
+      <c r="D53" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="1" t="n">
         <f aca="false">ABS(E53/D53 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F54" s="0" t="n">
+      <c r="D54" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="1" t="n">
         <f aca="false">ABS(E54/D54 -1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <f aca="false">AVERAGE(D2:D55)/60</f>
-        <v>0.030188679245283</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <f aca="false">AVERAGE(E2:E55)/60</f>
-        <v>0.0310010482180293</v>
+      <c r="D58" s="2" t="n">
+        <f aca="false">AVERAGE(D2:D55)</f>
+        <v>1.81132075471698</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <f aca="false">AVERAGE(E2:E55)</f>
+        <v>1.86006289308176</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(D2:D55)/60</f>
-        <v>0.0391762285778483</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(E2:E55)/60</f>
-        <v>0.0399085527155141</v>
+      <c r="D59" s="1" t="n">
+        <f aca="false">_xlfn.STDEV.P(D2:D55)</f>
+        <v>2.3505737146709</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <f aca="false">_xlfn.STDEV.P(E2:E55)</f>
+        <v>2.39451316293084</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <f aca="false">COUNT(D2:D55)</f>
         <v>53</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <f aca="false">COUNT(E2:E55)</f>
         <v>53</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="3" t="n">
         <f aca="false">(SUM(E2:E55)/SUM(D2:D55)) -1</f>
         <v>0.0269097222222221</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <f aca="false">SUM(F2:F55)/D61</f>
         <v>0.137421383647799</v>
       </c>
